--- a/Lab1/Lab 1 Work.xlsx
+++ b/Lab1/Lab 1 Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98197358-631D-4B33-8034-CA530012BF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BB217-A25C-4948-AE84-3E7A70F68A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4138,16 +4138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5634,7 +5634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEC7B12-8DFE-4E5F-B87E-6878D239CA07}">
   <dimension ref="A1:AM122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C62" sqref="C62:C122"/>
     </sheetView>
   </sheetViews>

--- a/Lab1/Lab 1 Work.xlsx
+++ b/Lab1/Lab 1 Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BB217-A25C-4948-AE84-3E7A70F68A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A673F-9BFA-4D66-B366-918A62F46695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="21570" windowHeight="8100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>THICKNESS</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>variance</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Mean</t>
@@ -235,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,6 +262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5634,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEC7B12-8DFE-4E5F-B87E-6878D239CA07}">
   <dimension ref="A1:AM122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C122"/>
+    <sheetView tabSelected="1" topLeftCell="Q48" workbookViewId="0">
+      <selection activeCell="AJ67" sqref="AJ67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6019,16 +6019,13 @@
       <c r="AA23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" t="s">
-        <v>27</v>
-      </c>
       <c r="AE23">
         <v>400</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI23">
+        <v>40</v>
+      </c>
+      <c r="AI23" s="19">
         <f>_xlfn.QUARTILE.INC(A2:A21,1)</f>
         <v>42</v>
       </c>
@@ -6046,13 +6043,13 @@
         <v>26</v>
       </c>
       <c r="AE24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24">
         <v>43.65</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI24">
         <f>_xlfn.QUARTILE.INC(A2:A21,2)</f>
@@ -6069,13 +6066,13 @@
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
       <c r="AE25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF25">
         <v>0.60382552377147392</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI25">
         <f>_xlfn.QUARTILE.INC(A2:A21,3)</f>
@@ -6092,13 +6089,13 @@
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
       <c r="AE26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF26">
         <v>44</v>
       </c>
       <c r="AH26" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI26">
         <f>AI25-AI23</f>
@@ -6115,7 +6112,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="6"/>
       <c r="AE27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF27">
         <v>44</v>
@@ -6139,7 +6136,7 @@
         <v>800</v>
       </c>
       <c r="AE28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF28">
         <v>2.7003898354048617</v>
@@ -6172,7 +6169,7 @@
         <v>10</v>
       </c>
       <c r="AE29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF29">
         <v>7.2921052631578958</v>
@@ -6205,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF30">
         <v>-0.2657968577470462</v>
@@ -6240,7 +6237,7 @@
       <c r="N31" s="13"/>
       <c r="T31" s="13"/>
       <c r="AE31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF31">
         <v>-0.49495863180427963</v>
@@ -6274,7 +6271,7 @@
       </c>
       <c r="T32" s="13"/>
       <c r="AE32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF32">
         <v>10</v>
@@ -6312,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="AE33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF33">
         <v>38</v>
@@ -6350,7 +6347,7 @@
         <v>13</v>
       </c>
       <c r="AE34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF34">
         <v>48</v>
@@ -6383,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF35">
         <v>873</v>
@@ -6419,7 +6416,7 @@
         <v>18</v>
       </c>
       <c r="AE36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF36">
         <v>20</v>
@@ -6617,7 +6614,7 @@
       </c>
       <c r="AJ42" s="15"/>
       <c r="AL42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM42">
         <f>_xlfn.QUARTILE.INC(A22:A41,1)</f>
@@ -6656,7 +6653,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AL43" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM43">
         <f>_xlfn.QUARTILE.INC(A22:A41,2)</f>
@@ -6693,13 +6690,13 @@
         <v>19</v>
       </c>
       <c r="AI44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ44" s="1">
         <v>39.700000000000003</v>
       </c>
       <c r="AL44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM44">
         <f>_xlfn.QUARTILE.INC(A22:A41,3)</f>
@@ -6733,13 +6730,13 @@
         <v>0</v>
       </c>
       <c r="AI45" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ45" s="1">
         <v>0.60741037892108229</v>
       </c>
       <c r="AL45" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AM45">
         <f>AM44-AM42</f>
@@ -6755,7 +6752,7 @@
       </c>
       <c r="C46" s="6"/>
       <c r="AI46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ46" s="1">
         <v>40</v>
@@ -6776,7 +6773,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="1"/>
       <c r="AI47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ47" s="1">
         <v>41</v>
@@ -6791,10 +6788,10 @@
       </c>
       <c r="C48" s="6"/>
       <c r="AI48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ48" s="1">
-        <v>2.716421795012891</v>
+        <v>2.7164217950128902</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
@@ -6807,7 +6804,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="AI49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ49" s="1">
         <v>7.3789473684210565</v>
@@ -6823,7 +6820,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="AI50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ50" s="1">
         <v>-0.29163235600365223</v>
@@ -6839,7 +6836,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="AI51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ51" s="1">
         <v>-0.54055614985519962</v>
@@ -6858,7 +6855,7 @@
         <v>12</v>
       </c>
       <c r="AI52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ52" s="1">
         <v>10</v>
@@ -6877,7 +6874,7 @@
         <v>13</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ53" s="1">
         <v>34</v>
@@ -6893,7 +6890,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="AI54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ54" s="1">
         <v>44</v>
@@ -6912,7 +6909,7 @@
         <v>17</v>
       </c>
       <c r="AI55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ55" s="1">
         <v>794</v>
@@ -6931,7 +6928,7 @@
         <v>16</v>
       </c>
       <c r="AI56" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ56" s="10">
         <v>20</v>
@@ -6995,7 +6992,7 @@
       </c>
       <c r="AJ60" s="15"/>
       <c r="AL60" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM60">
         <f>_xlfn.QUARTILE.INC(A42:A61,1)</f>
@@ -7017,7 +7014,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AL61" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AM61">
         <f>_xlfn.QUARTILE.INC(A42:A61,2)</f>
@@ -7032,13 +7029,13 @@
         <v>26</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ62" s="1">
         <v>39.5</v>
       </c>
       <c r="AL62" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM62">
         <f>_xlfn.QUARTILE.INC(A42:A61,3)</f>
@@ -7050,13 +7047,13 @@
         <v>1.2</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ63" s="1">
         <v>0.60480531882929933</v>
       </c>
       <c r="AL63" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AM63">
         <f>AM62-AM60</f>
@@ -7068,7 +7065,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AI64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ64" s="1">
         <v>40</v>
@@ -7079,7 +7076,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ65" s="1">
         <v>40</v>
@@ -7090,7 +7087,7 @@
         <v>1.05</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ66" s="1">
         <v>2.704771612111494</v>
@@ -7101,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="AI67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ67" s="1">
         <v>7.3157894736842106</v>
@@ -7112,7 +7109,7 @@
         <v>0.95</v>
       </c>
       <c r="AI68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ68" s="1">
         <v>0.57514580802560644</v>
@@ -7123,7 +7120,7 @@
         <v>0.9</v>
       </c>
       <c r="AI69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ69" s="1">
         <v>-0.75361974941946808</v>
@@ -7134,7 +7131,7 @@
         <v>0.85</v>
       </c>
       <c r="AI70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ70" s="1">
         <v>11</v>
@@ -7145,7 +7142,7 @@
         <v>0.8</v>
       </c>
       <c r="AI71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ71" s="1">
         <v>33</v>
@@ -7156,7 +7153,7 @@
         <v>0.75</v>
       </c>
       <c r="AI72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ72" s="1">
         <v>44</v>
@@ -7167,7 +7164,7 @@
         <v>0.7</v>
       </c>
       <c r="AI73" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ73" s="1">
         <v>790</v>
@@ -7178,7 +7175,7 @@
         <v>0.65</v>
       </c>
       <c r="AI74" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ74" s="10">
         <v>20</v>
